--- a/Base/Teams/Colts/Players Data.xlsx
+++ b/Base/Teams/Colts/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>M.Mack</t>
+  </si>
+  <si>
+    <t>De.Jackson</t>
   </si>
   <si>
     <t>M.Pittman</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -524,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,10 +550,10 @@
         <v>25</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -584,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -604,16 +607,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -627,12 +630,32 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -654,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -706,16 +729,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -755,13 +778,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>21</v>
@@ -770,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -781,13 +804,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -796,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -807,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -833,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -859,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -874,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -885,13 +908,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -911,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -937,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -963,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -989,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -1004,10 +1027,10 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1015,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1030,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Colts/Players Data.xlsx
+++ b/Base/Teams/Colts/Players Data.xlsx
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -715,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>4</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -781,19 +781,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -807,16 +807,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -911,10 +911,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -989,10 +989,10 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1001,10 +1001,10 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1015,7 +1015,7 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1027,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>4</v>

--- a/Base/Teams/Colts/Players Data.xlsx
+++ b/Base/Teams/Colts/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Colts/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B678C8FCFFCE4444A1333337F5EA4577E132F441" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E6C5FD-FE93-4C96-9061-33F64B6DA53F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -32,9 +38,6 @@
     <t>RZATT</t>
   </si>
   <si>
-    <t>C.Wentz</t>
-  </si>
-  <si>
     <t>S.Ehlinger</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>A.Dulin</t>
   </si>
   <si>
+    <t>J.Doyle</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -90,9 +96,6 @@
   </si>
   <si>
     <t>K.Coutee</t>
-  </si>
-  <si>
-    <t>J.Doyle</t>
   </si>
   <si>
     <t>M.Alie-Cox</t>
@@ -104,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -214,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,109 +528,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -590,24 +639,24 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -619,44 +668,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -665,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,15 +744,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -721,39 +770,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4">
         <v>5</v>
       </c>
@@ -773,38 +822,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>81</v>
-      </c>
-      <c r="D5">
-        <v>58</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>52</v>
@@ -825,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -851,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -877,24 +926,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>11</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -903,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -911,25 +960,25 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -937,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -949,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -981,12 +1030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>37</v>
@@ -1007,44 +1056,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>2</v>

--- a/Base/Teams/Colts/Players Data.xlsx
+++ b/Base/Teams/Colts/Players Data.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Colts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B678C8FCFFCE4444A1333337F5EA4577E132F441" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E6C5FD-FE93-4C96-9061-33F64B6DA53F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -39,6 +33,9 @@
   </si>
   <si>
     <t>S.Ehlinger</t>
+  </si>
+  <si>
+    <t>C.Wentz</t>
   </si>
   <si>
     <t>J.Taylor</t>
@@ -107,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +168,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -225,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,27 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,24 +280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,16 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,9 +479,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -548,89 +499,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -639,27 +590,27 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -668,43 +619,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -714,48 +685,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -770,18 +741,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -796,12 +767,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -822,18 +793,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -842,27 +813,27 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -874,12 +845,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -900,12 +871,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -926,15 +897,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -946,30 +917,30 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -978,15 +949,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1004,12 +975,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1030,12 +1001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>37</v>
@@ -1056,18 +1027,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1076,18 +1047,18 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>13</v>

--- a/Base/Teams/Colts/Players Data.xlsx
+++ b/Base/Teams/Colts/Players Data.xlsx
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -723,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -735,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -749,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -761,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -801,22 +801,22 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -827,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>12</v>
@@ -839,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -853,13 +853,13 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1009,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1035,13 +1035,13 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>5</v>
